--- a/RAS08-SOFS7/RAS8_SOFS7.xlsx
+++ b/RAS08-SOFS7/RAS8_SOFS7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/Shared/RAS_QCd_final_formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sha359/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85F811-BE32-FD41-9E22-2AFD418ACBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B745B317-13C1-BA4F-B2F3-B35C24D0DFF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="8460" windowWidth="28580" windowHeight="14780" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="3220" windowWidth="23520" windowHeight="13800" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">logs!$A$1:$E$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">phytoplankton!$A$59:$I$99</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -7470,8 +7460,8 @@
   </sheetPr>
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -8010,7 +8000,7 @@
         <v>2316.4852776759108</v>
       </c>
       <c r="Y10" s="170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="188">
         <f>'CO2'!C4</f>
